--- a/league_dict.xlsx
+++ b/league_dict.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wt_an\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/557e8c8e9b1f0372/Documents/WT Analysis/Excel Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B743153E-6810-488C-9144-62463243A198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="8_{5EAC5B0D-B715-4733-8BC4-0749D208B439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38D5DA44-8FAD-44FE-AB61-B23819524967}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E870964E-72B7-432A-AC57-81E8B1FB7B9A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
   <si>
     <t>Season</t>
   </si>
@@ -254,76 +254,10 @@
     <t>db8f4sqdf7s0g850fspnf8hlg</t>
   </si>
   <si>
-    <t>World Cup Qualifiers (UEFA)</t>
-  </si>
-  <si>
-    <t>cscd2arb9anef4wya15c3djbo</t>
-  </si>
-  <si>
-    <t>2856p00v9pp48aeyzcso6i32s</t>
-  </si>
-  <si>
-    <t>221phckhkd7y6rg3uyava3ifo</t>
-  </si>
-  <si>
-    <t>WSL2</t>
-  </si>
-  <si>
-    <t>WSL</t>
-  </si>
-  <si>
-    <t>3ducfa94ga849pfvx8bjjgt1w</t>
-  </si>
-  <si>
-    <t>NWSL</t>
-  </si>
-  <si>
-    <t>e98d4oial167tji58n80jkh04</t>
-  </si>
-  <si>
-    <t>USL Super League</t>
-  </si>
-  <si>
-    <t>3ielq9pcsvqfftb4q5zjc2dw</t>
-  </si>
-  <si>
-    <t>A-League Women</t>
-  </si>
-  <si>
-    <t>br2imckbqwr0wvucakfvdp05w</t>
-  </si>
-  <si>
-    <t>Frauen Bundesliga</t>
-  </si>
-  <si>
-    <t>6p40bsv3lhm3ol1xme09nqqz8</t>
-  </si>
-  <si>
-    <t>Premiere League</t>
-  </si>
-  <si>
-    <t>djelzk9437o7odzfkuo137das</t>
-  </si>
-  <si>
-    <t>Liga F</t>
-  </si>
-  <si>
-    <t>Serie A Women</t>
-  </si>
-  <si>
-    <t>38sqwwkm2xu0fnqfb7o0wd79w</t>
-  </si>
-  <si>
-    <t>24f2xd1kljmiu7o0xrpj30kd0</t>
-  </si>
-  <si>
-    <t>Women's Champions League</t>
-  </si>
-  <si>
-    <t>dpkwiii8s0mlljsz0mjrexous</t>
-  </si>
-  <si>
-    <t>EFL Trophy</t>
+    <t>ceu82myq9rpq841ts3jl7uvis</t>
+  </si>
+  <si>
+    <t>SWPL</t>
   </si>
 </sst>
 </file>
@@ -701,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673AED86-F034-49DA-B6EF-799C1DFCCB2C}">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,131 +1138,10 @@
         <v>30</v>
       </c>
       <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
         <v>72</v>
-      </c>
-      <c r="C37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>2025</v>
-      </c>
-      <c r="B41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/league_dict.xlsx
+++ b/league_dict.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/557e8c8e9b1f0372/Documents/WT Analysis/Excel Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wt_an\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{5EAC5B0D-B715-4733-8BC4-0749D208B439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38D5DA44-8FAD-44FE-AB61-B23819524967}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9ADC5C4-4AFD-4C50-B5F9-E8B584462D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E870964E-72B7-432A-AC57-81E8B1FB7B9A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
   <si>
     <t>Season</t>
   </si>
@@ -258,6 +258,36 @@
   </si>
   <si>
     <t>SWPL</t>
+  </si>
+  <si>
+    <t>WSL</t>
+  </si>
+  <si>
+    <t>WSL2</t>
+  </si>
+  <si>
+    <t>2856p00v9pp48aeyzcso6i32s</t>
+  </si>
+  <si>
+    <t>221phckhkd7y6rg3uyava3ifo</t>
+  </si>
+  <si>
+    <t>3ielq9pcsvqfftb4q5zjc2dw</t>
+  </si>
+  <si>
+    <t>A-League Women</t>
+  </si>
+  <si>
+    <t>2bqrpllc5x3it55paifyfa044</t>
+  </si>
+  <si>
+    <t>Premiere League</t>
+  </si>
+  <si>
+    <t>e98d4oial167tji58n80jkh04</t>
+  </si>
+  <si>
+    <t>USL Super League</t>
   </si>
 </sst>
 </file>
@@ -635,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{673AED86-F034-49DA-B6EF-799C1DFCCB2C}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,6 +1174,61 @@
         <v>72</v>
       </c>
     </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
